--- a/data/trans_orig/P1422-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1422-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>22723</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14395</v>
+        <v>13797</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35113</v>
+        <v>34472</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0233141586998008</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0147690040346674</v>
+        <v>0.0141561219754519</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03602652986379633</v>
+        <v>0.03536907311544599</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -764,19 +764,19 @@
         <v>17871</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10429</v>
+        <v>10466</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28152</v>
+        <v>27583</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01335876121548296</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007795517435198982</v>
+        <v>0.007823228034485681</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02104357660601296</v>
+        <v>0.02061807371310545</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -785,19 +785,19 @@
         <v>40594</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27134</v>
+        <v>29084</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>57296</v>
+        <v>55890</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01755474486660093</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0117338858671665</v>
+        <v>0.01257738336877289</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02477722594344759</v>
+        <v>0.02416909754817407</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>951920</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>939530</v>
+        <v>940171</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>960248</v>
+        <v>960846</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9766858413001992</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9639734701362036</v>
+        <v>0.9646309268845541</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9852309959653326</v>
+        <v>0.9858438780245481</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1230</v>
@@ -835,19 +835,19 @@
         <v>1319926</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1309645</v>
+        <v>1310214</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1327368</v>
+        <v>1327331</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.986641238784517</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9789564233939871</v>
+        <v>0.9793819262868947</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9922044825648011</v>
+        <v>0.9921767719655146</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2119</v>
@@ -856,19 +856,19 @@
         <v>2271846</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2255144</v>
+        <v>2256550</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2285306</v>
+        <v>2283356</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9824452551333991</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9752227740565524</v>
+        <v>0.9758309024518265</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9882661141328335</v>
+        <v>0.9874226166312272</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>10899</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5981</v>
+        <v>5856</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18834</v>
+        <v>17991</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005549575834885861</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00304527227638376</v>
+        <v>0.00298151237980423</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.009589648726959936</v>
+        <v>0.009160697751315597</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -981,19 +981,19 @@
         <v>6408</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3036</v>
+        <v>2979</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13699</v>
+        <v>14602</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003652155066225245</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001730182602524388</v>
+        <v>0.00169780372995363</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.007807286317618265</v>
+        <v>0.008322002598105218</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -1002,19 +1002,19 @@
         <v>17307</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10120</v>
+        <v>10771</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27052</v>
+        <v>27658</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.004654280667512343</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002721614285388827</v>
+        <v>0.002896520548318853</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007274865749079418</v>
+        <v>0.007437830889389498</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>1953058</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1945123</v>
+        <v>1945966</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1957976</v>
+        <v>1958101</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9944504241651141</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9904103512730407</v>
+        <v>0.9908393022486846</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9969547277236163</v>
+        <v>0.9970184876201958</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1627</v>
@@ -1052,19 +1052,19 @@
         <v>1748184</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1740893</v>
+        <v>1739990</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1751556</v>
+        <v>1751613</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9963478449337747</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9921927136823822</v>
+        <v>0.9916779974018953</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9982698173974757</v>
+        <v>0.9983021962700465</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3472</v>
@@ -1073,19 +1073,19 @@
         <v>3701242</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3691497</v>
+        <v>3690891</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3708429</v>
+        <v>3707778</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9953457193324876</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9927251342509206</v>
+        <v>0.9925621691106103</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9972783857146111</v>
+        <v>0.997103479451681</v>
       </c>
     </row>
     <row r="9">
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8515</v>
+        <v>5566</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002397495966815067</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0185670838678027</v>
+        <v>0.01213714456585651</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5545</v>
+        <v>6618</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001169984601454557</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.005899820270937157</v>
+        <v>0.007042203393537241</v>
       </c>
     </row>
     <row r="11">
@@ -1253,7 +1253,7 @@
         <v>457531</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>450116</v>
+        <v>453065</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>458631</v>
@@ -1262,7 +1262,7 @@
         <v>0.997602504033185</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.981432916132197</v>
+        <v>0.9878628554341435</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1274,7 +1274,7 @@
         <v>938713</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>934268</v>
+        <v>933195</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>939813</v>
@@ -1283,7 +1283,7 @@
         <v>0.9988300153985454</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9941001797290628</v>
+        <v>0.9929577966064628</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1378,19 +1378,19 @@
         <v>33622</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22501</v>
+        <v>23213</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>48236</v>
+        <v>47861</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009831654133235321</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006579606334872928</v>
+        <v>0.006787868831001628</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01410504429923396</v>
+        <v>0.01399544227992103</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -1399,19 +1399,19 @@
         <v>25379</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17071</v>
+        <v>16737</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37240</v>
+        <v>36957</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.007146936781090248</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004807257162590602</v>
+        <v>0.004713365278004654</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01048721457772409</v>
+        <v>0.01040743533187197</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>54</v>
@@ -1420,19 +1420,19 @@
         <v>59001</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>45966</v>
+        <v>44154</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>77613</v>
+        <v>75732</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.008464023156947203</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006594130646756931</v>
+        <v>0.006334201771146755</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01113402130914766</v>
+        <v>0.01086416865618159</v>
       </c>
     </row>
     <row r="14">
@@ -1449,19 +1449,19 @@
         <v>3386160</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3371546</v>
+        <v>3371921</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3397281</v>
+        <v>3396569</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9901683458667647</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9858949557007658</v>
+        <v>0.9860045577200788</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9934203936651268</v>
+        <v>0.9932121311689981</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3268</v>
@@ -1470,19 +1470,19 @@
         <v>3525641</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3513780</v>
+        <v>3514063</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3533949</v>
+        <v>3534283</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9928530632189098</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9895127854222759</v>
+        <v>0.9895925646681281</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9951927428374094</v>
+        <v>0.9952866347219953</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6440</v>
@@ -1491,19 +1491,19 @@
         <v>6911800</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6893188</v>
+        <v>6895069</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6924835</v>
+        <v>6926647</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9915359768430528</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.988865978690852</v>
+        <v>0.9891358313438183</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.993405869353243</v>
+        <v>0.9936657982288529</v>
       </c>
     </row>
     <row r="15">
@@ -1834,19 +1834,19 @@
         <v>8680</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4328</v>
+        <v>4434</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15207</v>
+        <v>14997</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01150651938368721</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005738056838017466</v>
+        <v>0.005877406222844004</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02015918828976981</v>
+        <v>0.01988066935606493</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -1855,19 +1855,19 @@
         <v>11045</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5276</v>
+        <v>5456</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19401</v>
+        <v>19674</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01110399228376725</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005304157401035052</v>
+        <v>0.005484981772033506</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01950533536703872</v>
+        <v>0.01977925834250919</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -1876,19 +1876,19 @@
         <v>19725</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12413</v>
+        <v>12297</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30300</v>
+        <v>29494</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01127760224037995</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007097414784441139</v>
+        <v>0.007031045590284143</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01732392036800437</v>
+        <v>0.01686306144944764</v>
       </c>
     </row>
     <row r="5">
@@ -1905,19 +1905,19 @@
         <v>745667</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>739140</v>
+        <v>739350</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>750019</v>
+        <v>749913</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9884934806163128</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9798408117102301</v>
+        <v>0.980119330643935</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9942619431619825</v>
+        <v>0.9941225937771559</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>883</v>
@@ -1926,19 +1926,19 @@
         <v>983615</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>975259</v>
+        <v>974986</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>989384</v>
+        <v>989204</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9888960077162328</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9804946646329613</v>
+        <v>0.980220741657491</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9946958425989649</v>
+        <v>0.9945150182279665</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1635</v>
@@ -1947,19 +1947,19 @@
         <v>1729282</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1718707</v>
+        <v>1719513</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1736594</v>
+        <v>1736710</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.98872239775962</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9826760796319959</v>
+        <v>0.9831369385505524</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9929025852155589</v>
+        <v>0.9929689544097159</v>
       </c>
     </row>
     <row r="6">
@@ -2051,19 +2051,19 @@
         <v>7971</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3649</v>
+        <v>3286</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16038</v>
+        <v>16402</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00383883898118732</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001757608424746533</v>
+        <v>0.001582379950369132</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.007723987346698442</v>
+        <v>0.007899452249262235</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -2072,19 +2072,19 @@
         <v>6441</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3079</v>
+        <v>3089</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12984</v>
+        <v>14217</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.00323931213440052</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001548781425027216</v>
+        <v>0.001553470357077949</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.006530071083722378</v>
+        <v>0.007150403199116746</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -2093,19 +2093,19 @@
         <v>14412</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8225</v>
+        <v>8115</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23622</v>
+        <v>23435</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003545571665409422</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002023572349035243</v>
+        <v>0.001996514657956335</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.005811508854388305</v>
+        <v>0.00576562400447963</v>
       </c>
     </row>
     <row r="8">
@@ -2122,19 +2122,19 @@
         <v>2068414</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2060347</v>
+        <v>2059983</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2072736</v>
+        <v>2073099</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9961611610188127</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9922760126533015</v>
+        <v>0.9921005477507376</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9982423915752534</v>
+        <v>0.9984176200496309</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1902</v>
@@ -2143,19 +2143,19 @@
         <v>1981859</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1975316</v>
+        <v>1974083</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1985221</v>
+        <v>1985211</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9967606878655995</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9934699289162776</v>
+        <v>0.9928495968008832</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9984512185749728</v>
+        <v>0.9984465296429221</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3847</v>
@@ -2164,19 +2164,19 @@
         <v>4050273</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4041063</v>
+        <v>4041250</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4056460</v>
+        <v>4056570</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9964544283345905</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9941884911456117</v>
+        <v>0.9942343759955203</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9979764276509647</v>
+        <v>0.9980034853420436</v>
       </c>
     </row>
     <row r="9">
@@ -2268,19 +2268,19 @@
         <v>4917</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1914</v>
+        <v>1831</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11087</v>
+        <v>10448</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008991498503270785</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003500343777768012</v>
+        <v>0.003347820689318595</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02027384638719657</v>
+        <v>0.01910371960750781</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13080</v>
+        <v>13398</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006035569552978595</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02381899587848924</v>
+        <v>0.02439740140511311</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -2310,19 +2310,19 @@
         <v>8232</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3178</v>
+        <v>3943</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17454</v>
+        <v>17048</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007510494372267577</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002899538765152415</v>
+        <v>0.00359788249302799</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01592472954838702</v>
+        <v>0.01555396972208292</v>
       </c>
     </row>
     <row r="11">
@@ -2339,19 +2339,19 @@
         <v>541969</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>535799</v>
+        <v>536438</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>544972</v>
+        <v>545055</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9910085014967293</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9797261536128036</v>
+        <v>0.9808962803924922</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.996499656222232</v>
+        <v>0.9966521793106814</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>524</v>
@@ -2360,7 +2360,7 @@
         <v>545826</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>536060</v>
+        <v>535742</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>549140</v>
@@ -2369,7 +2369,7 @@
         <v>0.9939644304470214</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9761810041215105</v>
+        <v>0.9756025985948878</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -2381,19 +2381,19 @@
         <v>1087795</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1078573</v>
+        <v>1078979</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1092849</v>
+        <v>1092084</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9924895056277324</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.984075270451613</v>
+        <v>0.984446030277917</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9971004612348475</v>
+        <v>0.9964021175069721</v>
       </c>
     </row>
     <row r="12">
@@ -2485,19 +2485,19 @@
         <v>21568</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13904</v>
+        <v>13467</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32374</v>
+        <v>32158</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006385606814627178</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004116588805582103</v>
+        <v>0.003987119774507057</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.009584881837597122</v>
+        <v>0.009520966218429178</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -2506,19 +2506,19 @@
         <v>20800</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12116</v>
+        <v>11912</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31791</v>
+        <v>33589</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.005888789951940658</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003430353361930076</v>
+        <v>0.003372584818609762</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.00900067236814993</v>
+        <v>0.009509688646858038</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -2527,19 +2527,19 @@
         <v>42368</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29769</v>
+        <v>30156</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>58145</v>
+        <v>56949</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.006131644641641748</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004308301697493027</v>
+        <v>0.004364256075232949</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.008414992950975315</v>
+        <v>0.008241885826640179</v>
       </c>
     </row>
     <row r="14">
@@ -2556,19 +2556,19 @@
         <v>3356050</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3345244</v>
+        <v>3345460</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3363714</v>
+        <v>3364151</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9936143931853728</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9904151181624029</v>
+        <v>0.9904790337815709</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9958834111944179</v>
+        <v>0.9960128802254929</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3309</v>
@@ -2577,19 +2577,19 @@
         <v>3511300</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3500309</v>
+        <v>3498511</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3519984</v>
+        <v>3520188</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9941112100480594</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9909993276318496</v>
+        <v>0.9904903113531418</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9965696466380698</v>
+        <v>0.9966274151813902</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6502</v>
@@ -2598,19 +2598,19 @@
         <v>6867350</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6851573</v>
+        <v>6852769</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6879949</v>
+        <v>6879562</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9938683553583583</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9915850070490247</v>
+        <v>0.9917581141733612</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.995691698302507</v>
+        <v>0.9956357439247672</v>
       </c>
     </row>
     <row r="15">
@@ -2941,19 +2941,19 @@
         <v>15094</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9696</v>
+        <v>9278</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22509</v>
+        <v>21699</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02613551744659497</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01678894380008943</v>
+        <v>0.01606528533043669</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03897420352989159</v>
+        <v>0.03757128447763845</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -2962,19 +2962,19 @@
         <v>22079</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15469</v>
+        <v>15270</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30295</v>
+        <v>29856</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02690584198565784</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01885070419418922</v>
+        <v>0.01860790438770142</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03691736457138656</v>
+        <v>0.03638249969926342</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>63</v>
@@ -2983,19 +2983,19 @@
         <v>37174</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>28743</v>
+        <v>29229</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48286</v>
+        <v>49124</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02658763950589515</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0205576253875745</v>
+        <v>0.0209054568415191</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03453581727767833</v>
+        <v>0.03513485469239891</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>562448</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>555033</v>
+        <v>555843</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>567846</v>
+        <v>568264</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9738644825534051</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9610257964701086</v>
+        <v>0.9624287155223613</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9832110561999107</v>
+        <v>0.9839347146695633</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1386</v>
@@ -3033,19 +3033,19 @@
         <v>798529</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>790313</v>
+        <v>790752</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>805139</v>
+        <v>805338</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9730941580143422</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9630826354286134</v>
+        <v>0.9636175003007367</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9811492958058109</v>
+        <v>0.9813920956122987</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2052</v>
@@ -3054,19 +3054,19 @@
         <v>1360976</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1349864</v>
+        <v>1349026</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1369407</v>
+        <v>1368921</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9734123604941046</v>
+        <v>0.9734123604941048</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9654641827223216</v>
+        <v>0.9648651453076005</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9794423746124254</v>
+        <v>0.9790945431584807</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>25106</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16889</v>
+        <v>17321</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35968</v>
+        <v>36289</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01126912582061039</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007580707130679515</v>
+        <v>0.007774688237036669</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01614456723737398</v>
+        <v>0.01628894517956977</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -3179,19 +3179,19 @@
         <v>14162</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8620</v>
+        <v>8966</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21099</v>
+        <v>21092</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.006527961279984793</v>
+        <v>0.006527961279984792</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003973410012967608</v>
+        <v>0.004132869411168911</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.009725778487848252</v>
+        <v>0.009722684339138948</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>54</v>
@@ -3200,19 +3200,19 @@
         <v>39268</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28793</v>
+        <v>29706</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>50880</v>
+        <v>52790</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.008930061817297602</v>
+        <v>0.008930061817297604</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006547882831950047</v>
+        <v>0.006755603118908883</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01157083428438561</v>
+        <v>0.01200526704355333</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>2202744</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2191882</v>
+        <v>2191561</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2210961</v>
+        <v>2210529</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9887308741793897</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9838554327626261</v>
+        <v>0.9837110548204302</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9924192928693206</v>
+        <v>0.9922253117629634</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2894</v>
@@ -3250,19 +3250,19 @@
         <v>2155224</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2148287</v>
+        <v>2148294</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2160766</v>
+        <v>2160420</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9934720387200153</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9902742215121521</v>
+        <v>0.990277315660861</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9960265899870324</v>
+        <v>0.9958671305888311</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4853</v>
@@ -3271,19 +3271,19 @@
         <v>4357967</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4346355</v>
+        <v>4344445</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4368442</v>
+        <v>4367529</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9910699381827023</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9884291657156139</v>
+        <v>0.9879947329564466</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9934521171680496</v>
+        <v>0.9932443968810907</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>4638</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1558</v>
+        <v>1551</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12120</v>
+        <v>10863</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.006517612759508756</v>
+        <v>0.006517612759508755</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002188973404971454</v>
+        <v>0.002180161445354451</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01703168887124764</v>
+        <v>0.01526642185326125</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -3396,19 +3396,19 @@
         <v>2420</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6166</v>
+        <v>5794</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.003296004410565193</v>
+        <v>0.003296004410565192</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0008858308479759293</v>
+        <v>0.0008607962370813234</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.008398953973768941</v>
+        <v>0.007891342890652442</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -3417,19 +3417,19 @@
         <v>7058</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3294</v>
+        <v>2895</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14307</v>
+        <v>13528</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004881620647852568</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002278468099368376</v>
+        <v>0.002002654458060425</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009895735774522936</v>
+        <v>0.009356543303141356</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>706949</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>699467</v>
+        <v>700724</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>710029</v>
+        <v>710036</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9934823872404913</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9829683111287522</v>
+        <v>0.9847335781467388</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9978110265950286</v>
+        <v>0.9978198385546455</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>999</v>
@@ -3467,19 +3467,19 @@
         <v>731775</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>728029</v>
+        <v>728401</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>733545</v>
+        <v>733563</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9967039955894348</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.991601046026231</v>
+        <v>0.9921086571093476</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9991141691520242</v>
+        <v>0.9991392037629186</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1675</v>
@@ -3488,19 +3488,19 @@
         <v>1438724</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1431475</v>
+        <v>1432254</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1442488</v>
+        <v>1442887</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9951183793521474</v>
+        <v>0.9951183793521478</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9901042642254769</v>
+        <v>0.9906434566968587</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9977215319006317</v>
+        <v>0.9979973455419395</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>44838</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>34440</v>
+        <v>33567</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>59809</v>
+        <v>57826</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01274904660536885</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009792545316639754</v>
+        <v>0.009544143755337939</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01700573534877073</v>
+        <v>0.01644194377418954</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>67</v>
@@ -3613,19 +3613,19 @@
         <v>38661</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29994</v>
+        <v>30177</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49615</v>
+        <v>49742</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01038097926945473</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.008053881453528295</v>
+        <v>0.008102971193119191</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01332240289609204</v>
+        <v>0.0133565273383029</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>126</v>
@@ -3634,19 +3634,19 @@
         <v>83499</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>69019</v>
+        <v>70050</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>100806</v>
+        <v>98504</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01153113122033717</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009531529684950092</v>
+        <v>0.009673904519191045</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01392130308279358</v>
+        <v>0.01360330608747645</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>3472141</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3457170</v>
+        <v>3459153</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3482539</v>
+        <v>3483412</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9872509533946312</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9829942646512292</v>
+        <v>0.9835580562258105</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9902074546833602</v>
+        <v>0.990455856244662</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5279</v>
@@ -3684,19 +3684,19 @@
         <v>3685527</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3674573</v>
+        <v>3674446</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3694194</v>
+        <v>3694011</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9896190207305453</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9866775971039078</v>
+        <v>0.9866434726616971</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9919461185464719</v>
+        <v>0.9918970288068808</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8580</v>
@@ -3705,19 +3705,19 @@
         <v>7157668</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7140361</v>
+        <v>7142663</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7172148</v>
+        <v>7171117</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9884688687796629</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9860786969172062</v>
+        <v>0.9863966939125227</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9904684703150499</v>
+        <v>0.9903260954808091</v>
       </c>
     </row>
     <row r="15">
